--- a/medicine/Enfance/Bill_Crider/Bill_Crider.xlsx
+++ b/medicine/Enfance/Bill_Crider/Bill_Crider.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allen Billy Crider, dit Bill Crider, né le 28 juillet 1941[1] à Mexia au Texas et mort le 12 février 2018[2], est un écrivain américain, auteur de roman policier, de roman d'horreur, de roman western et de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allen Billy Crider, dit Bill Crider, né le 28 juillet 1941 à Mexia au Texas et mort le 12 février 2018, est un écrivain américain, auteur de roman policier, de roman d'horreur, de roman western et de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bill Crider obtient une maîtrise de l'université de North Texas. Il enseigne pendant douze ans avant d'entreprendre un doctorat à l'université du Texas à Austin. Sa thèse, qui est acceptée, a pour sujet le roman noir. Il retourne ensuite à l'enseignement avant de prendre sa retraite en 2003 pour se consacrer entièrement à l'écriture.
 En 1986, il publie son premier roman, Too Late to Die et est lauréat du prix Anthony 1987 du meilleur premier roman. Ce titre amorce une série policière ayant pour héros Dan Rhodes, un shérif d'une petite ville du Texas qui, en marge de ses enquêtes où perce son indéniable sens de l'humour, s'occupe avec un soin maniaque de sa collection de cartes de baseball.
@@ -545,8 +559,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans signés Bill Crider
-Série Dan Rhodes
+          <t>Romans signés Bill Crider</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Dan Rhodes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Too Late to Die (1986)
 Shotgun Saturday Night (1987)
 Cursed to Death (1988)
@@ -573,31 +596,303 @@
 Survivors Will Be Shot Again (2016)
 Dead, To Begin With (2017)
 That Old Scoundrel Death (2019)
-Série Carl Burns
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans signés Bill Crider</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Carl Burns</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 One Dead Dean (1988)
 Dying Voices (1989)
 A Dangerous Thing (1994)
 Dead Soldiers (2004)
-Série Truman Smith
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans signés Bill Crider</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Truman Smith</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dead On the Island (1991)
 Gator Kill (1992)
 When Old Men Die (1994)
 The Prairie Chicken Kill (1996)
 Murder Takes a Break (1997)
-Série Mike Gonzo
-Mike Gonzo and the Sewer Monster (1996)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans signés Bill Crider</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Mike Gonzo</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mike Gonzo and the Sewer Monster (1996)
 Mike Gonzo and the Almost Invisible Man (1996)
-Mike Gonzo and the UFO Terror (1997)
-Série Ellie Taine
-Outrage at Blanco (1998)
-Texas Vigilante (1999)
-Série Sally Good
-Murder Is an Art (1999)
+Mike Gonzo and the UFO Terror (1997)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans signés Bill Crider</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Ellie Taine</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Outrage at Blanco (1998)
+Texas Vigilante (1999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans signés Bill Crider</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Sally Good</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Murder Is an Art (1999)
 A Knife in the Back (2002)
-A Bond with Death (2004)
-Série Humphrey Bogart
-We'll Always Have Murder (2003)
-Autres romans
+A Bond with Death (2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans signés Bill Crider</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Humphrey Bogart</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>We'll Always Have Murder (2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans signés Bill Crider</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ryan Rides Back (1988)
 Galveston Gunman (1989)
 A Time for Hanging (1990)
@@ -605,34 +900,287 @@
 Blood Marks (1991)
 The Texas Capitol Murders (1992)
 The Girl Who Wanted to Be Sherlock Holmes (2011)
-Roman signé Nick Carter
-Série Killmaster
-The Coyote Connection (1981)
-Romans signés Jack MacLane
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Roman signé Nick Carter</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Killmaster</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>The Coyote Connection (1981)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans signés Jack MacLane</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Keepers of the Beast (1988)
 Goodnight Moon (1988)
 Goodnight Moom (1989)
 Blood Dreams (1989)
 Rest in Peace (1990)
 Just Before Dark (1990)
-Roman signé Jack Buchanan
-Miami War Zone (1988)
-Romans coécrit avec Willard Scott
-Série Stanley Waters
-Murder Under Blue Skies (1998)
-Murder in the Mist (1998)
-Romans coécrit avec Clyde Wilson
-Série Ted Stephens
-Houston Homicide (2007)
-Mississippi Vivian (2010)
-Novellas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Roman signé Jack Buchanan</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Miami War Zone (1988)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Romans coécrit avec Willard Scott</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Série Stanley Waters</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Murder Under Blue Skies (1998)
+Murder in the Mist (1998)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Romans coécrit avec Clyde Wilson</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Série Ted Stephens</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Houston Homicide (2007)
+Mississippi Vivian (2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Novellas</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 My Heart Cries for You (1992)
 Death's Brother (2011)
 What a Croc! (2011)
 A Werewolf Named Wayne (2011)
 Among the Anthropophagai! (2013)
 Piano Man (2014)
-Nouvelles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 But I Feel the Bright Eyes... (1994)
 King of the Night (1995)
 The Nighttime Is the Right Time (1995)
@@ -642,41 +1190,78 @@
 Cap'n Bob and Gus Publié en français sous le titre Cap' taine Bob et Gus, dans l'anthologie Petits Meurtres entre chats à Hollywood, Paris, Joëlle Losfeld, coll. « Anthologie » (1999)  (ISBN 2-84412-014-8), réédition Le Grand Livre du mois (1999)  (ISBN 2-7028-3552-X)
 Tinseltown Follies of 1948 (1999)
 Chocolate Moose (2002), nouvelle coécrite avec Judy Crider
-Recueils de nouvelles
-The Nightime Is the Right Time (1991)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>The Nightime Is the Right Time (1991)
 I Am a Roving Gambler (2012)
 Raining Willie &amp; Cranked (2012)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bill_Crider</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bill_Crider</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Crider</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Anthony 1987 du meilleur premier roman pour Too Late to Die[3]
-Prix Anthony 2002 de la meilleure nouvelle pour Chocolate Moose[4]</t>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Prix Anthony 1987 du meilleur premier roman pour Too Late to Die
+Prix Anthony 2002 de la meilleure nouvelle pour Chocolate Moose</t>
         </is>
       </c>
     </row>
